--- a/gips_outputs/Source_Data_Preserved_Composite.xlsx
+++ b/gips_outputs/Source_Data_Preserved_Composite.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G88"/>
+  <dimension ref="A1:G74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2721,440 +2721,6 @@
         </is>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>TLT</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>ISHARES 20+ YR TREAS BD ETF</t>
-        </is>
-      </c>
-      <c r="C75" t="n">
-        <v>150000</v>
-      </c>
-      <c r="D75" t="n">
-        <v>92.5</v>
-      </c>
-      <c r="E75" t="n">
-        <v>13875000</v>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Government</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>Fixed Income</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>EDV</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>VANGUARD EXTENDED DURATION TREASURY ETF</t>
-        </is>
-      </c>
-      <c r="C76" t="n">
-        <v>85000</v>
-      </c>
-      <c r="D76" t="n">
-        <v>78.25</v>
-      </c>
-      <c r="E76" t="n">
-        <v>6651250</v>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Government</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>Fixed Income</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>ZROZ</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>PIMCO 25+ YEAR ZERO COUPON US TREASURY ETF</t>
-        </is>
-      </c>
-      <c r="C77" t="n">
-        <v>38000</v>
-      </c>
-      <c r="D77" t="n">
-        <v>82</v>
-      </c>
-      <c r="E77" t="n">
-        <v>3116000</v>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Government</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>Fixed Income</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>VGLT</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>VANGUARD LONG-TERM TREASURY ETF</t>
-        </is>
-      </c>
-      <c r="C78" t="n">
-        <v>48000</v>
-      </c>
-      <c r="D78" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="E78" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Government</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>Fixed Income</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>SPTL</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>SPDR PORTFOLIO LONG TERM TREASURY ETF</t>
-        </is>
-      </c>
-      <c r="C79" t="n">
-        <v>42000</v>
-      </c>
-      <c r="D79" t="n">
-        <v>28.75</v>
-      </c>
-      <c r="E79" t="n">
-        <v>1207500</v>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Government</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>Fixed Income</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>BLV</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>VANGUARD LONG-TERM BOND ETF</t>
-        </is>
-      </c>
-      <c r="C80" t="n">
-        <v>28000</v>
-      </c>
-      <c r="D80" t="n">
-        <v>72</v>
-      </c>
-      <c r="E80" t="n">
-        <v>2016000</v>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Corporate</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>Fixed Income</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>VCLT</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>VANGUARD LONG-TERM CORPORATE BOND ETF</t>
-        </is>
-      </c>
-      <c r="C81" t="n">
-        <v>25000</v>
-      </c>
-      <c r="D81" t="n">
-        <v>76.5</v>
-      </c>
-      <c r="E81" t="n">
-        <v>1912500</v>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Corporate</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>Fixed Income</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>MUB</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>ISHARES NATIONAL MUNI BOND ETF</t>
-        </is>
-      </c>
-      <c r="C82" t="n">
-        <v>37000</v>
-      </c>
-      <c r="D82" t="n">
-        <v>107</v>
-      </c>
-      <c r="E82" t="n">
-        <v>3959000</v>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Municipal</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>Fixed Income</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>HYD</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>VANECK HIGH YIELD MUNI ETF</t>
-        </is>
-      </c>
-      <c r="C83" t="n">
-        <v>77000</v>
-      </c>
-      <c r="D83" t="n">
-        <v>52</v>
-      </c>
-      <c r="E83" t="n">
-        <v>4004000</v>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Municipal</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>Fixed Income</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>MBB</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>ISHARES MBS ETF</t>
-        </is>
-      </c>
-      <c r="C84" t="n">
-        <v>55000</v>
-      </c>
-      <c r="D84" t="n">
-        <v>91</v>
-      </c>
-      <c r="E84" t="n">
-        <v>5005000</v>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>MBS</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>Fixed Income</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>GNMA</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>ISHARES GNMA BOND ETF</t>
-        </is>
-      </c>
-      <c r="C85" t="n">
-        <v>116000</v>
-      </c>
-      <c r="D85" t="n">
-        <v>43</v>
-      </c>
-      <c r="E85" t="n">
-        <v>4988000</v>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>MBS</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>Fixed Income</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>AGZ</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>ISHARES AGENCY BOND ETF</t>
-        </is>
-      </c>
-      <c r="C86" t="n">
-        <v>45000</v>
-      </c>
-      <c r="D86" t="n">
-        <v>112</v>
-      </c>
-      <c r="E86" t="n">
-        <v>5040000</v>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Agency</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>Fixed Income</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>JNK</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>SPDR BLOOMBERG HIGH YIELD BOND ETF</t>
-        </is>
-      </c>
-      <c r="C87" t="n">
-        <v>38000</v>
-      </c>
-      <c r="D87" t="n">
-        <v>92</v>
-      </c>
-      <c r="E87" t="n">
-        <v>3496000</v>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>High Yield</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>Fixed Income</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>USHY</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>ISHARES BROAD USD HIGH YIELD CORP BOND ETF</t>
-        </is>
-      </c>
-      <c r="C88" t="n">
-        <v>103000</v>
-      </c>
-      <c r="D88" t="n">
-        <v>34</v>
-      </c>
-      <c r="E88" t="n">
-        <v>3502000</v>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>High Yield</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>Fixed Income</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
